--- a/src/main/webapp/resources/movieRoomFile/TU31.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/TU31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\git\dok_GV\src\main\webapp\resources\movieRoomFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{21538F87-C3A3-48FD-A4FC-8C99222319F4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DEADF52D-740D-45CE-83FA-695AE2E2CF3E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
     <workbookView windowHeight="9180" windowWidth="23748" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="3">
   <si>
     <t>.</t>
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:AA150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75">
-      <selection activeCell="I5" sqref="I5:L5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -480,14 +483,14 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>80.0</v>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -496,16 +499,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -736,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>

--- a/src/main/webapp/resources/movieRoomFile/TU31.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/TU31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\git\dok_GV\src\main\webapp\resources\movieRoomFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DEADF52D-740D-45CE-83FA-695AE2E2CF3E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E515FF96-E999-49FA-9168-2257BA0D3F13}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
     <workbookView windowHeight="9180" windowWidth="23748" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="3">
   <si>
     <t>.</t>
   </si>
@@ -388,7 +388,7 @@
   <dimension ref="A1:AA150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I5" sqref="I5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -570,25 +570,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
@@ -739,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>

--- a/src/main/webapp/resources/movieRoomFile/TU31.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/TU31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\git\dok_GV\src\main\webapp\resources\movieRoomFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E515FF96-E999-49FA-9168-2257BA0D3F13}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D310589F-A2C6-484B-B76F-964AC13B9932}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
     <workbookView windowHeight="9180" windowWidth="23748" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="9">
   <si>
     <t>.</t>
   </si>
@@ -28,7 +28,25 @@
     <t>O</t>
   </si>
   <si>
-    <t>P</t>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B8</t>
   </si>
 </sst>
 </file>
@@ -388,7 +406,7 @@
   <dimension ref="A1:AA150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75">
-      <selection activeCell="I5" sqref="I5:L5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -490,25 +508,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -570,25 +588,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>

--- a/src/main/webapp/resources/movieRoomFile/TU31.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/TU31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="9">
   <si>
     <t>.</t>
   </si>

--- a/src/main/webapp/resources/movieRoomFile/TU31.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/TU31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="14">
   <si>
     <t>.</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>B8</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
   </si>
 </sst>
 </file>

--- a/src/main/webapp/resources/movieRoomFile/TU31.xlsx
+++ b/src/main/webapp/resources/movieRoomFile/TU31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="18">
   <si>
     <t>.</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>B3</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
   </si>
 </sst>
 </file>
@@ -775,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>1</v>
